--- a/SCRUM/backlog.xlsx
+++ b/SCRUM/backlog.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
-    <t xml:space="preserve">PRODUCT BACKLOG TEMPLATE </t>
+    <t>CHIRP BACKLOG</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCT BACKLOG REPORT </t>
@@ -54,13 +54,16 @@
     <t>I can navigate trough the app</t>
   </si>
   <si>
-    <t>High</t>
+    <t>Medium</t>
   </si>
   <si>
     <t>In Progress</t>
   </si>
   <si>
     <t>Not Started</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
   <si>
     <t>App</t>
@@ -70,9 +73,6 @@
   </si>
   <si>
     <t>I dont loose any information</t>
-  </si>
-  <si>
-    <t>Medium</t>
   </si>
   <si>
     <t>Be able to create an account</t>
@@ -362,7 +362,7 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
@@ -399,13 +399,10 @@
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -416,9 +413,6 @@
     <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -427,6 +421,9 @@
     </xf>
     <xf borderId="4" fillId="5" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -444,6 +441,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -889,16 +889,16 @@
       <c r="H4" s="18">
         <v>1.0</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="19" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="21" t="s">
-        <v>12</v>
+      <c r="M4" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -916,33 +916,33 @@
     </row>
     <row r="5" ht="24.75" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="22"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="23">
-        <v>0.0</v>
+      <c r="G5" s="17" t="s">
+        <v>15</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>14</v>
+      <c r="H5" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="22" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="25" t="s">
-        <v>18</v>
+      <c r="M5" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -960,7 +960,7 @@
     </row>
     <row r="6" ht="24.75" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="22"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
@@ -971,21 +971,21 @@
       <c r="F6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>18</v>
+      <c r="G6" s="17" t="s">
+        <v>12</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="24">
         <v>2.0</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="25" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="22" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="26" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="6"/>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="7" ht="24.75" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="22"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="15" t="s">
         <v>23</v>
       </c>
@@ -1015,15 +1015,15 @@
       <c r="F7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>18</v>
+      <c r="G7" s="17" t="s">
+        <v>12</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="19" t="s">
+      <c r="H7" s="27"/>
+      <c r="I7" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="28" t="s">
         <v>26</v>
       </c>
       <c r="L7" s="6"/>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="8" ht="24.75" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="22"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="15" t="s">
         <v>23</v>
       </c>
@@ -1055,17 +1055,17 @@
       <c r="F8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="24">
         <v>3.0</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="28" t="s">
         <v>29</v>
       </c>
       <c r="L8" s="6"/>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="9" ht="24.75" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="22"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="15" t="s">
         <v>9</v>
       </c>
@@ -1094,12 +1094,12 @@
       <c r="E9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="19" t="s">
+      <c r="F9" s="29"/>
+      <c r="G9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="19" t="s">
+      <c r="H9" s="30"/>
+      <c r="I9" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="6"/>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="10" ht="24.75" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="22"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="15" t="s">
         <v>31</v>
       </c>
@@ -1133,11 +1133,11 @@
       <c r="F10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="19" t="s">
+      <c r="H10" s="30"/>
+      <c r="I10" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="6"/>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="11" ht="24.75" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="22"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="15" t="s">
         <v>9</v>
       </c>
@@ -1168,12 +1168,12 @@
       <c r="E11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="19" t="s">
+      <c r="F11" s="29"/>
+      <c r="G11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="19" t="s">
+      <c r="H11" s="27"/>
+      <c r="I11" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="6"/>
@@ -1196,22 +1196,22 @@
     </row>
     <row r="12" ht="24.75" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="22"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="29"/>
+      <c r="G12" s="17" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="18">
         <v>4.0</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="6"/>
@@ -1234,18 +1234,18 @@
     </row>
     <row r="13" ht="24.75" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="32"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="19" t="s">
+      <c r="E13" s="32"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="33">
         <v>0.0</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="6"/>
@@ -1268,18 +1268,18 @@
     </row>
     <row r="14" ht="24.75" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="32"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="19" t="s">
+      <c r="E14" s="32"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="33">
         <v>0.0</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="6"/>
@@ -1302,18 +1302,18 @@
     </row>
     <row r="15" ht="24.75" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="19" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="33">
         <v>0.0</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="6"/>
@@ -1336,18 +1336,18 @@
     </row>
     <row r="16" ht="24.75" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="19" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="33">
         <v>0.0</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="6"/>
@@ -1370,18 +1370,18 @@
     </row>
     <row r="17" ht="24.75" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="19" t="s">
+      <c r="E17" s="32"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="33">
         <v>0.0</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="6"/>
@@ -1414,7 +1414,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="36">
         <f>SUM(H4:H17)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I18" s="37"/>
       <c r="J18" s="6"/>

--- a/SCRUM/backlog.xlsx
+++ b/SCRUM/backlog.xlsx
@@ -75,13 +75,13 @@
     <t>I dont loose any information</t>
   </si>
   <si>
+    <t>Complete</t>
+  </si>
+  <si>
     <t>Be able to create an account</t>
   </si>
   <si>
     <t>I can post chirps</t>
-  </si>
-  <si>
-    <t>Complete</t>
   </si>
   <si>
     <t>Low</t>
@@ -356,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -421,9 +421,6 @@
     </xf>
     <xf borderId="4" fillId="5" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -934,7 +931,7 @@
         <v>2.0</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="22" t="s">
@@ -966,10 +963,10 @@
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>12</v>
@@ -977,15 +974,15 @@
       <c r="H6" s="24">
         <v>2.0</v>
       </c>
-      <c r="I6" s="25" t="s">
-        <v>14</v>
+      <c r="I6" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="25" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="6"/>
@@ -1018,12 +1015,12 @@
       <c r="G7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="27"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="27" t="s">
         <v>26</v>
       </c>
       <c r="L7" s="6"/>
@@ -1065,7 +1062,7 @@
         <v>14</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="27" t="s">
         <v>29</v>
       </c>
       <c r="L8" s="6"/>
@@ -1094,11 +1091,11 @@
       <c r="E9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="30"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="17" t="s">
         <v>14</v>
       </c>
@@ -1136,7 +1133,7 @@
       <c r="G10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="30"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="17" t="s">
         <v>14</v>
       </c>
@@ -1168,11 +1165,11 @@
       <c r="E11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="27"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="17" t="s">
         <v>14</v>
       </c>
@@ -1204,7 +1201,7 @@
       <c r="E12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="17" t="s">
         <v>22</v>
       </c>
@@ -1235,14 +1232,14 @@
     <row r="13" ht="24.75" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="21"/>
-      <c r="C13" s="31"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="32">
         <v>0.0</v>
       </c>
       <c r="I13" s="17" t="s">
@@ -1269,14 +1266,14 @@
     <row r="14" ht="24.75" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="21"/>
-      <c r="C14" s="31"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="29"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="32">
         <v>0.0</v>
       </c>
       <c r="I14" s="17" t="s">
@@ -1303,14 +1300,14 @@
     <row r="15" ht="24.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="21"/>
-      <c r="C15" s="31"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="29"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="32">
         <v>0.0</v>
       </c>
       <c r="I15" s="17" t="s">
@@ -1337,14 +1334,14 @@
     <row r="16" ht="24.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="21"/>
-      <c r="C16" s="31"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="29"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="32">
         <v>0.0</v>
       </c>
       <c r="I16" s="17" t="s">
@@ -1371,14 +1368,14 @@
     <row r="17" ht="24.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="21"/>
-      <c r="C17" s="31"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="29"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="32">
         <v>0.0</v>
       </c>
       <c r="I17" s="17" t="s">
@@ -1404,19 +1401,19 @@
     </row>
     <row r="18" ht="24.75" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="36">
+      <c r="H18" s="35">
         <f>SUM(H4:H17)</f>
         <v>12</v>
       </c>
-      <c r="I18" s="37"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -1436,10 +1433,10 @@
       <c r="Z18" s="6"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>

--- a/SCRUM/backlog.xlsx
+++ b/SCRUM/backlog.xlsx
@@ -1017,7 +1017,7 @@
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="27" t="s">
